--- a/Beta Project - Velocity/Base-Lab/Testing/bucket_Tests/Original EIB/AUM EIB Template.xlsx
+++ b/Beta Project - Velocity/Base-Lab/Testing/bucket_Tests/Original EIB/AUM EIB Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastienstvil/Documents/Python/Python-DEV/Beta Project - Velocity/Base-Lab/Testing/bucket_Tests/Original EIB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605C023-7250-FD4E-A508-BAA71A446F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBDEF53-2FFD-2444-A542-C83B4AD96612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
   <si>
     <t>Import Accounting Journal</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>BU_16001</t>
-  </si>
-  <si>
-    <t>BU_15501</t>
   </si>
   <si>
     <t>79993</t>
@@ -1407,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1776,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AT16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2785,8 +2782,8 @@
       <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="5">
-        <v>79998</v>
+      <c r="F15" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>120</v>
@@ -2794,7 +2791,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="5" t="s">
         <v>45</v>
       </c>
@@ -2804,73 +2801,23 @@
       <c r="P15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="5" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="11">
-        <v>11</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="6"/>
+      <c r="P16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2957,7 +2904,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ4" xr:uid="{00000000-0002-0000-0100-000019000000}">
       <formula1>"WID,Supplier_ID,Supplier_Reference_ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI31999" xr:uid="{00000000-0002-0000-0100-00001A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI31998" xr:uid="{00000000-0002-0000-0100-00001A000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
